--- a/Carrie/11-24/微信收入/微信9月收入.xlsx
+++ b/Carrie/11-24/微信收入/微信9月收入.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
-  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
+  <workbookPr codeName="ThisWorkbook" hidePivotFieldList="1" defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mattz\Documents\WorkSpace\Carrie\11-24\微信收入\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB89ACA5-F6A4-4771-9D22-DA43A0F50462}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="600" yWindow="60" windowWidth="19395" windowHeight="8295" activeTab="3"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="15196" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1516858981All2020-09-01_2020-09" sheetId="1" r:id="rId1"/>
@@ -15,7 +21,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'1516858981All2020-09-01_2020-09'!$A$1:$AA$1</definedName>
   </definedNames>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="181029"/>
   <pivotCaches>
     <pivotCache cacheId="0" r:id="rId5"/>
   </pivotCaches>
@@ -6316,7 +6322,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="19">
     <font>
       <sz val="11"/>
@@ -6961,33 +6967,27 @@
     </xf>
   </cellXfs>
   <cellStyles count="42">
-    <cellStyle name="20% - 强调文字颜色 1" xfId="19" builtinId="30" customBuiltin="1"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="23" builtinId="34" customBuiltin="1"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="27" builtinId="38" customBuiltin="1"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="31" builtinId="42" customBuiltin="1"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="35" builtinId="46" customBuiltin="1"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="39" builtinId="50" customBuiltin="1"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="20" builtinId="31" customBuiltin="1"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="24" builtinId="35" customBuiltin="1"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="28" builtinId="39" customBuiltin="1"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="32" builtinId="43" customBuiltin="1"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="36" builtinId="47" customBuiltin="1"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32" customBuiltin="1"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="25" builtinId="36" customBuiltin="1"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="29" builtinId="40" customBuiltin="1"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="33" builtinId="44" customBuiltin="1"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="37" builtinId="48" customBuiltin="1"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="20% - 着色 1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - 着色 2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - 着色 3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - 着色 4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - 着色 5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - 着色 6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - 着色 1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - 着色 2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - 着色 3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - 着色 4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - 着色 5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - 着色 6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - 着色 1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - 着色 2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - 着色 3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - 着色 4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - 着色 5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - 着色 6" xfId="41" builtinId="52" customBuiltin="1"/>
     <cellStyle name="好" xfId="6" builtinId="26" customBuiltin="1"/>
     <cellStyle name="差" xfId="7" builtinId="27" customBuiltin="1"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="强调文字颜色 1" xfId="18" builtinId="29" customBuiltin="1"/>
-    <cellStyle name="强调文字颜色 2" xfId="22" builtinId="33" customBuiltin="1"/>
-    <cellStyle name="强调文字颜色 3" xfId="26" builtinId="37" customBuiltin="1"/>
-    <cellStyle name="强调文字颜色 4" xfId="30" builtinId="41" customBuiltin="1"/>
-    <cellStyle name="强调文字颜色 5" xfId="34" builtinId="45" customBuiltin="1"/>
-    <cellStyle name="强调文字颜色 6" xfId="38" builtinId="49" customBuiltin="1"/>
     <cellStyle name="标题" xfId="1" builtinId="15" customBuiltin="1"/>
     <cellStyle name="标题 1" xfId="2" builtinId="16" customBuiltin="1"/>
     <cellStyle name="标题 2" xfId="3" builtinId="17" customBuiltin="1"/>
@@ -6996,6 +6996,12 @@
     <cellStyle name="检查单元格" xfId="13" builtinId="23" customBuiltin="1"/>
     <cellStyle name="汇总" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="注释" xfId="15" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="着色 1" xfId="18" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="着色 2" xfId="22" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="着色 3" xfId="26" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="着色 4" xfId="30" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="着色 5" xfId="34" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="着色 6" xfId="38" builtinId="49" customBuiltin="1"/>
     <cellStyle name="解释性文本" xfId="16" builtinId="53" customBuiltin="1"/>
     <cellStyle name="警告文本" xfId="14" builtinId="11" customBuiltin="1"/>
     <cellStyle name="计算" xfId="11" builtinId="22" customBuiltin="1"/>
@@ -7006,11 +7012,19 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Matt.Zhou" refreshedDate="44159.425759027778" createdVersion="3" refreshedVersion="3" minRefreshableVersion="3" recordCount="224">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Matt.Zhou" refreshedDate="44159.425759027778" createdVersion="3" refreshedVersion="3" minRefreshableVersion="3" recordCount="224" xr:uid="{00000000-000A-0000-FFFF-FFFF00000000}">
   <cacheSource type="worksheet">
     <worksheetSource ref="U1:W1048576" sheet="71"/>
   </cacheSource>
@@ -7062,6 +7076,11 @@
       <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="0" maxValue="12"/>
     </cacheField>
   </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition/>
+    </ext>
+  </extLst>
 </pivotCacheDefinition>
 </file>
 
@@ -8191,7 +8210,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="数据透视表1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="3" minRefreshableVersion="3" showCalcMbrs="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="3" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0100-000000000000}" name="数据透视表1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="3" minRefreshableVersion="3" showCalcMbrs="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="3" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="Z1:AB39" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="3">
     <pivotField axis="axisRow" showAll="0">
@@ -8370,11 +8389,16 @@
     <dataField name="求和项:申请退款金额" fld="2" baseField="0" baseItem="0"/>
   </dataFields>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
 </pivotTableDefinition>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -8416,7 +8440,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -8448,9 +8472,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -8482,6 +8524,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -8657,7 +8717,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:AA326"/>
   <sheetViews>
@@ -8667,8 +8727,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="16" max="16" width="21.625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="134.625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="21.59765625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="134.59765625" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="9" customWidth="1"/>
   </cols>
   <sheetData>
@@ -35611,8 +35671,8 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AA1">
-    <sortState ref="A2:AA326">
+  <autoFilter ref="A1:AA1" xr:uid="{00000000-0009-0000-0000-000000000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:AA326">
       <sortCondition ref="U1"/>
     </sortState>
   </autoFilter>
@@ -35622,19 +35682,19 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:AB224"/>
   <sheetViews>
-    <sheetView topLeftCell="A123" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="Z3" sqref="Z3:AB37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="21" max="21" width="57.625" customWidth="1"/>
-    <col min="26" max="26" width="35.875" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="17.625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="57.59765625" customWidth="1"/>
+    <col min="26" max="26" width="35.86328125" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="17.59765625" bestFit="1" customWidth="1"/>
     <col min="28" max="28" width="22" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -49892,17 +49952,18 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:W34"/>
   <sheetViews>
-    <sheetView topLeftCell="R7" workbookViewId="0">
-      <selection activeCell="W34" sqref="V34:W34"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="21" max="21" width="93.875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.46484375" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="93.86328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:23">
@@ -52057,16 +52118,17 @@
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:E37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="D37" sqref="A37:D38"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C38" sqref="C38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
